--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Task Name</t>
   </si>
@@ -26,13 +26,58 @@
   </si>
   <si>
     <t>Actual time to finish</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>Mahmoud Sarhan</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Mohammed Abdel-Wahab</t>
+  </si>
+  <si>
+    <t>Ext_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arafa Arafa </t>
+  </si>
+  <si>
+    <t>Car_control</t>
+  </si>
+  <si>
+    <t>basel nagy</t>
+  </si>
+  <si>
+    <t>Timer_manager</t>
+  </si>
+  <si>
+    <t>Ext_int_manager</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>APP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -44,13 +89,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -59,12 +114,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,12 +337,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="24.63"/>
     <col customWidth="1" min="4" max="4" width="18.63"/>
     <col customWidth="1" min="5" max="5" width="15.63"/>
   </cols>
@@ -303,7 +366,180 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>